--- a/WNB-PUCD6-DH-1432-CVS/WNB-PUCD6-DH-1238v6.png/1399.xlsx
+++ b/WNB-PUCD6-DH-1432-CVS/WNB-PUCD6-DH-1238v6.png/1399.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="1">
   <si>
-    <t>©o ©)» 4) 4} =&amp;</t>
+    <t>G03</t>
   </si>
 </sst>
 </file>
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,6 +397,51 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
